--- a/biology/Origine et évolution du vivant/Multicrustacea/Multicrustacea.xlsx
+++ b/biology/Origine et évolution du vivant/Multicrustacea/Multicrustacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Multicrustacea sont une super-classe de crustacés. 
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 avril 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (13 avril 2016) :
 sous-classe Copepoda Milne-Edwards, 1840 -- Copépodes
 infra-classe Neocopepoda Huys &amp; Boxshall, 1991
 super-ordre Gymnoplea Giesbrecht, 1882
@@ -630,7 +644,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Jerome C. Regier, Jeffrey W. Shultz, Andreas Zwick, April Hussey, Bernard Ball, Regina Wetzer, Joel W. Martin et Clifford W. Cunningham, « Arthropod relationships revealed by phylogenomic analysis of nuclear protein-coding sequences », Nature, NPG et Springer Science+Business Media, vol. 463, no 7284,‎ 25 février 2010, p. 1079-83 (ISSN 1476-4687 et 0028-0836, OCLC 01586310, PMID 20147900, DOI 10.1038/NATURE08742)</t>
         </is>
